--- a/MainTop/16.08.2025 имена/поставка_остаток4.xlsx
+++ b/MainTop/16.08.2025 имена/поставка_остаток4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\16.08.2025 имена\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110889AE-1D45-4C33-BBF1-0E8108D25755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF16D211-20DF-48F0-8DA4-EFC3350BDBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -559,7 +559,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="2">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
